--- a/web_barcode/fbs_mode/data_for_barcodes/pivot_excel/На производство.xlsx
+++ b/web_barcode/fbs_mode/data_for_barcodes/pivot_excel/На производство.xlsx
@@ -533,65 +533,65 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>92033-5</t>
+          <t>L011-b</t>
         </is>
       </c>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="n"/>
-      <c r="E2" s="2" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="n"/>
       <c r="F2" s="2" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>V175</t>
+          <t>V203</t>
         </is>
       </c>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="2" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>V271-b</t>
+          <t>V305-b</t>
         </is>
       </c>
       <c r="B4" s="2" t="n"/>
       <c r="C4" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="2" t="n">
+      <c r="D4" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="E4" s="2" t="n"/>
       <c r="F4" s="2" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>V402</t>
+          <t>V545</t>
         </is>
       </c>
       <c r="B5" s="2" t="n"/>
       <c r="C5" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="n">
+      <c r="D5" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="E5" s="2" t="n"/>
       <c r="F5" s="2" t="n"/>
     </row>
   </sheetData>
